--- a/lab-1/data/student-attributes.xlsx
+++ b/lab-1/data/student-attributes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oitncsu-my.sharepoint.com/personal/sbkellog_ncsu_edu/Documents/GitHub/LASER/network-analysis/lab-1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbkellog/Documents/GitHub/LASER/network-analysis/lab-1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{305CD5A8-717D-5B4E-A11C-4F5540859BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0890BD68-0A05-234D-8FEC-1E19F58A20A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C705F6C-07DD-D04D-B33C-CA1829A71226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -62,19 +62,109 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Kimberly</t>
+  </si>
+  <si>
+    <t>Helen</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>George</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,8 +187,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,487 +504,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F8795-088C-294C-AC19-8179547E986B}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
         <v>1</v>
       </c>
     </row>
